--- a/8/1/2/Series ajustadas estacionalmente 2003 a 2021 - Anual.xlsx
+++ b/8/1/2/Series ajustadas estacionalmente 2003 a 2021 - Anual.xlsx
@@ -504,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>21647</v>
+        <v>21646</v>
       </c>
       <c r="C2">
         <v>8750</v>
@@ -513,7 +513,7 @@
         <v>10708</v>
       </c>
       <c r="E2">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F2">
         <v>19242</v>
@@ -528,7 +528,7 @@
         <v>3494</v>
       </c>
       <c r="J2">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="K2">
         <v>4991</v>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>32993</v>
+        <v>32992</v>
       </c>
       <c r="C3">
         <v>16706</v>
@@ -548,7 +548,7 @@
         <v>13857</v>
       </c>
       <c r="E3">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="F3">
         <v>24664</v>
@@ -563,7 +563,7 @@
         <v>4207</v>
       </c>
       <c r="J3">
-        <v>6049</v>
+        <v>6046</v>
       </c>
       <c r="K3">
         <v>6327</v>
@@ -592,13 +592,13 @@
         <v>7444</v>
       </c>
       <c r="H4">
-        <v>18601</v>
+        <v>18600</v>
       </c>
       <c r="I4">
         <v>6806</v>
       </c>
       <c r="J4">
-        <v>6986</v>
+        <v>6987</v>
       </c>
       <c r="K4">
         <v>7526</v>
@@ -621,7 +621,7 @@
         <v>2852</v>
       </c>
       <c r="F5">
-        <v>38961</v>
+        <v>38960</v>
       </c>
       <c r="G5">
         <v>9125</v>
@@ -633,7 +633,7 @@
         <v>7421</v>
       </c>
       <c r="J5">
-        <v>7741</v>
+        <v>7742</v>
       </c>
       <c r="K5">
         <v>8259</v>
@@ -650,7 +650,7 @@
         <v>42461</v>
       </c>
       <c r="D6">
-        <v>22814</v>
+        <v>22815</v>
       </c>
       <c r="E6">
         <v>3293</v>
@@ -668,7 +668,7 @@
         <v>8464</v>
       </c>
       <c r="J6">
-        <v>8996</v>
+        <v>8997</v>
       </c>
       <c r="K6">
         <v>9453</v>
@@ -703,7 +703,7 @@
         <v>11432</v>
       </c>
       <c r="J7">
-        <v>10679</v>
+        <v>10674</v>
       </c>
       <c r="K7">
         <v>11631</v>
@@ -720,13 +720,13 @@
         <v>31553</v>
       </c>
       <c r="D8">
-        <v>19905</v>
+        <v>19906</v>
       </c>
       <c r="E8">
         <v>3694</v>
       </c>
       <c r="F8">
-        <v>42722</v>
+        <v>42721</v>
       </c>
       <c r="G8">
         <v>9940</v>
@@ -738,7 +738,7 @@
         <v>8303</v>
       </c>
       <c r="J8">
-        <v>8403</v>
+        <v>8404</v>
       </c>
       <c r="K8">
         <v>10079</v>
@@ -761,7 +761,7 @@
         <v>4424</v>
       </c>
       <c r="F9">
-        <v>58831</v>
+        <v>58830</v>
       </c>
       <c r="G9">
         <v>15432</v>
@@ -773,7 +773,7 @@
         <v>11267</v>
       </c>
       <c r="J9">
-        <v>10820</v>
+        <v>10821</v>
       </c>
       <c r="K9">
         <v>12604</v>
@@ -784,10 +784,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>81634</v>
+        <v>81587</v>
       </c>
       <c r="C10">
-        <v>49250</v>
+        <v>49203</v>
       </c>
       <c r="D10">
         <v>27360</v>
@@ -808,7 +808,7 @@
         <v>14333</v>
       </c>
       <c r="J10">
-        <v>12897</v>
+        <v>12899</v>
       </c>
       <c r="K10">
         <v>15365</v>
@@ -819,10 +819,10 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>77765</v>
+        <v>77773</v>
       </c>
       <c r="C11">
-        <v>45971</v>
+        <v>45979</v>
       </c>
       <c r="D11">
         <v>26833</v>
@@ -843,7 +843,7 @@
         <v>16983</v>
       </c>
       <c r="J11">
-        <v>12327</v>
+        <v>12322</v>
       </c>
       <c r="K11">
         <v>14812</v>
@@ -854,19 +854,19 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>76800</v>
+        <v>76812</v>
       </c>
       <c r="C12">
-        <v>43693</v>
+        <v>43704</v>
       </c>
       <c r="D12">
         <v>27456</v>
       </c>
       <c r="E12">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="F12">
-        <v>79543</v>
+        <v>79542</v>
       </c>
       <c r="G12">
         <v>21035</v>
@@ -878,7 +878,7 @@
         <v>17130</v>
       </c>
       <c r="J12">
-        <v>12110</v>
+        <v>12113</v>
       </c>
       <c r="K12">
         <v>15542</v>
@@ -889,31 +889,31 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>75197</v>
+        <v>75205</v>
       </c>
       <c r="C13">
-        <v>40553</v>
+        <v>40560</v>
       </c>
       <c r="D13">
-        <v>29021</v>
+        <v>29020</v>
       </c>
       <c r="E13">
-        <v>5623</v>
+        <v>5625</v>
       </c>
       <c r="F13">
-        <v>72967</v>
+        <v>72965</v>
       </c>
       <c r="G13">
         <v>19477</v>
       </c>
       <c r="H13">
-        <v>38850</v>
+        <v>38849</v>
       </c>
       <c r="I13">
         <v>14640</v>
       </c>
       <c r="J13">
-        <v>10691</v>
+        <v>10693</v>
       </c>
       <c r="K13">
         <v>14411</v>
@@ -924,22 +924,22 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>62220</v>
+        <v>62227</v>
       </c>
       <c r="C14">
-        <v>32477</v>
+        <v>32480</v>
       </c>
       <c r="D14">
-        <v>24532</v>
+        <v>24531</v>
       </c>
       <c r="E14">
-        <v>5211</v>
+        <v>5215</v>
       </c>
       <c r="F14">
         <v>62405</v>
       </c>
       <c r="G14">
-        <v>17859</v>
+        <v>17860</v>
       </c>
       <c r="H14">
         <v>31234</v>
@@ -948,7 +948,7 @@
         <v>13312</v>
       </c>
       <c r="J14">
-        <v>9518</v>
+        <v>9520</v>
       </c>
       <c r="K14">
         <v>13095</v>
@@ -959,31 +959,31 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>60773</v>
+        <v>60788</v>
       </c>
       <c r="C15">
-        <v>30574</v>
+        <v>30583</v>
       </c>
       <c r="D15">
-        <v>24133</v>
+        <v>24132</v>
       </c>
       <c r="E15">
-        <v>6065</v>
+        <v>6073</v>
       </c>
       <c r="F15">
         <v>59397</v>
       </c>
       <c r="G15">
-        <v>17775</v>
+        <v>17776</v>
       </c>
       <c r="H15">
-        <v>28263</v>
+        <v>28262</v>
       </c>
       <c r="I15">
         <v>13358</v>
       </c>
       <c r="J15">
-        <v>9531</v>
+        <v>9528</v>
       </c>
       <c r="K15">
         <v>12840</v>
@@ -994,31 +994,31 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>68919</v>
+        <v>68958</v>
       </c>
       <c r="C16">
-        <v>36980</v>
+        <v>37002</v>
       </c>
       <c r="D16">
-        <v>25936</v>
+        <v>25935</v>
       </c>
       <c r="E16">
-        <v>6004</v>
+        <v>6021</v>
       </c>
       <c r="F16">
-        <v>65278</v>
+        <v>65277</v>
       </c>
       <c r="G16">
         <v>20744</v>
       </c>
       <c r="H16">
-        <v>30923</v>
+        <v>30922</v>
       </c>
       <c r="I16">
         <v>13611</v>
       </c>
       <c r="J16">
-        <v>9771</v>
+        <v>9783</v>
       </c>
       <c r="K16">
         <v>13613</v>
@@ -1029,16 +1029,16 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>74739</v>
+        <v>74773</v>
       </c>
       <c r="C17">
-        <v>39184</v>
+        <v>39191</v>
       </c>
       <c r="D17">
         <v>29101</v>
       </c>
       <c r="E17">
-        <v>6454</v>
+        <v>6481</v>
       </c>
       <c r="F17">
         <v>74719</v>
@@ -1053,7 +1053,7 @@
         <v>15313</v>
       </c>
       <c r="J17">
-        <v>9893</v>
+        <v>9933</v>
       </c>
       <c r="K17">
         <v>14609</v>
@@ -1064,31 +1064,31 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>68842</v>
+        <v>68892</v>
       </c>
       <c r="C18">
-        <v>35393</v>
+        <v>35400</v>
       </c>
       <c r="D18">
-        <v>26669</v>
+        <v>26671</v>
       </c>
       <c r="E18">
-        <v>6780</v>
+        <v>6820</v>
       </c>
       <c r="F18">
         <v>69972</v>
       </c>
       <c r="G18">
-        <v>20158</v>
+        <v>20157</v>
       </c>
       <c r="H18">
         <v>34636</v>
       </c>
       <c r="I18">
-        <v>15178</v>
+        <v>15179</v>
       </c>
       <c r="J18">
-        <v>9254</v>
+        <v>9602</v>
       </c>
       <c r="K18">
         <v>14362</v>
@@ -1099,31 +1099,31 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>73275</v>
+        <v>73351</v>
       </c>
       <c r="C19">
-        <v>41488</v>
+        <v>41530</v>
       </c>
       <c r="D19">
         <v>25376</v>
       </c>
       <c r="E19">
-        <v>6411</v>
+        <v>6445</v>
       </c>
       <c r="F19">
-        <v>59244</v>
+        <v>59243</v>
       </c>
       <c r="G19">
         <v>16325</v>
       </c>
       <c r="H19">
-        <v>29853</v>
+        <v>29852</v>
       </c>
       <c r="I19">
         <v>13066</v>
       </c>
       <c r="J19">
-        <v>6335</v>
+        <v>6623</v>
       </c>
       <c r="K19">
         <v>11316</v>
